--- a/CalendarioAgo2022/examenes/Ponderaciones.xlsx
+++ b/CalendarioAgo2022/examenes/Ponderaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Analitica\CalendarioAgo2022\examenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F9D8A8D-F8BA-45F0-9249-068FAD679EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08801E1D-CA63-4983-9E3D-F21AC1FF08FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAD10B7E-782F-4E4E-8B91-9CB47483822F}"/>
+    <workbookView xWindow="33030" yWindow="3360" windowWidth="14055" windowHeight="10200" xr2:uid="{BAD10B7E-782F-4E4E-8B91-9CB47483822F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>POO</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Laborarios, actividades de clase y examenes rápidos</t>
+  </si>
+  <si>
+    <t>Columnas ponderadas</t>
+  </si>
+  <si>
+    <t>Columna final ponderada</t>
   </si>
 </sst>
 </file>
@@ -748,12 +754,12 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
+    <col min="1" max="1" width="61.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -807,6 +813,14 @@
       <c r="B6" s="14">
         <v>12</v>
       </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -814,7 +828,7 @@
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -828,7 +842,7 @@
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -858,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>

--- a/CalendarioAgo2022/examenes/Ponderaciones.xlsx
+++ b/CalendarioAgo2022/examenes/Ponderaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Analitica\CalendarioAgo2022\examenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08801E1D-CA63-4983-9E3D-F21AC1FF08FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DCA1A5-02C4-425A-8D84-A1720C2F0AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33030" yWindow="3360" windowWidth="14055" windowHeight="10200" xr2:uid="{BAD10B7E-782F-4E4E-8B91-9CB47483822F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAD10B7E-782F-4E4E-8B91-9CB47483822F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -751,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59C4871-03B2-4F98-8B09-174D34786FCA}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -880,7 +880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
@@ -888,13 +888,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B18">
         <f>SUM(B10:B17)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
@@ -902,7 +902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>15</v>
       </c>
@@ -910,7 +910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>16</v>
       </c>
@@ -918,10 +918,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B23">
         <f>SUM(B21:B22)</f>
         <v>36</v>
+      </c>
+      <c r="F23">
+        <f>100/7</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="I23">
+        <f>14*4</f>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
